--- a/Jogos_do_Dia/2022-12-29_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-29_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,10 +632,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="G2" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H2" t="n">
         <v>1.75</v>
@@ -653,10 +653,10 @@
         <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="N2" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -704,7 +704,7 @@
         <v>1.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE2" t="n">
         <v>1.55</v>
@@ -716,7 +716,7 @@
         <v>2.3</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="3">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="G3" t="n">
         <v>3.4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="I3" t="n">
         <v>1.03</v>
@@ -763,10 +763,10 @@
         <v>3.61</v>
       </c>
       <c r="M3" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="N3" t="n">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="O3" t="n">
         <v>1.37</v>
@@ -814,7 +814,7 @@
         <v>2.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE3" t="n">
         <v>1.55</v>
@@ -826,7 +826,7 @@
         <v>2.3</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="4">
@@ -852,43 +852,43 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.01</v>
+        <v>1.91</v>
       </c>
       <c r="G5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H5" t="n">
         <v>3.7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.55</v>
       </c>
       <c r="I5" t="n">
         <v>1.04</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="G6" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="I6" t="n">
         <v>1.07</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="G7" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
         <v>1.05</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="G8" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
         <v>1.08</v>
@@ -1364,16 +1364,16 @@
         <v>2.77</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="G9" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
         <v>1.07</v>
@@ -1423,10 +1423,10 @@
         <v>2.87</v>
       </c>
       <c r="M9" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="N9" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="O9" t="n">
         <v>1.44</v>
@@ -1474,19 +1474,19 @@
         <v>2.91</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="10">
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="G10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H10" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="I10" t="n">
         <v>1.06</v>
@@ -1533,10 +1533,10 @@
         <v>3.25</v>
       </c>
       <c r="M10" t="n">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="N10" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="O10" t="n">
         <v>1.4</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="G11" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
         <v>1.03</v>
@@ -1643,10 +1643,10 @@
         <v>4.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="N11" t="n">
-        <v>2.16</v>
+        <v>2.43</v>
       </c>
       <c r="O11" t="n">
         <v>1.29</v>
@@ -1694,7 +1694,7 @@
         <v>2.88</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE11" t="n">
         <v>1.55</v>
@@ -1706,7 +1706,7 @@
         <v>2.3</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="12">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="G12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H12" t="n">
-        <v>5.15</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
         <v>1.08</v>
@@ -1753,10 +1753,10 @@
         <v>2.75</v>
       </c>
       <c r="M12" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="N12" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="O12" t="n">
         <v>1.48</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G13" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="H13" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="I13" t="n">
         <v>1.05</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G14" t="n">
         <v>3.3</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
         <v>1.07</v>
@@ -1973,10 +1973,10 @@
         <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>2.09</v>
+        <v>2.12</v>
       </c>
       <c r="N14" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="O14" t="n">
         <v>1.44</v>
@@ -2015,28 +2015,28 @@
         <v>3.03</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="15">
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.74</v>
+        <v>2.63</v>
       </c>
       <c r="G15" t="n">
         <v>3.25</v>
       </c>
       <c r="H15" t="n">
-        <v>2.71</v>
+        <v>2.55</v>
       </c>
       <c r="I15" t="n">
         <v>1.06</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.78</v>
+        <v>2.9</v>
       </c>
       <c r="G16" t="n">
         <v>3.1</v>
       </c>
       <c r="H16" t="n">
-        <v>2.44</v>
+        <v>2.45</v>
       </c>
       <c r="I16" t="n">
         <v>1.07</v>
@@ -2193,10 +2193,10 @@
         <v>2.95</v>
       </c>
       <c r="M16" t="n">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="N16" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="O16" t="n">
         <v>1.44</v>
@@ -2235,13 +2235,13 @@
         <v>2.51</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AD16" t="n">
         <v>1.24</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.33</v>
+        <v>2.3</v>
       </c>
       <c r="G17" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I17" t="n">
         <v>1.08</v>
@@ -2354,19 +2354,19 @@
         <v>2.05</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF17" t="n">
         <v>1.88</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="18">
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="G18" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H18" t="n">
-        <v>2.42</v>
+        <v>2.55</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -2413,10 +2413,10 @@
         <v>3.8</v>
       </c>
       <c r="M18" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="N18" t="n">
-        <v>1.88</v>
+        <v>1.97</v>
       </c>
       <c r="O18" t="n">
         <v>1.36</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="G19" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="H19" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
         <v>1.06</v>
@@ -2523,10 +2523,10 @@
         <v>3.2</v>
       </c>
       <c r="M19" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="N19" t="n">
-        <v>1.7</v>
+        <v>1.86</v>
       </c>
       <c r="O19" t="n">
         <v>1.44</v>
@@ -2565,28 +2565,28 @@
         <v>2.95</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="20">
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="G20" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H20" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I20" t="n">
         <v>1.05</v>
@@ -2633,10 +2633,10 @@
         <v>3.4</v>
       </c>
       <c r="M20" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="N20" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="O20" t="n">
         <v>1.4</v>
@@ -2675,13 +2675,13 @@
         <v>3.04</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -2690,13 +2690,13 @@
         <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="21">
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="G21" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="H21" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="I21" t="n">
         <v>1.06</v>
@@ -2743,10 +2743,10 @@
         <v>3.2</v>
       </c>
       <c r="M21" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="N21" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="O21" t="n">
         <v>1.44</v>
@@ -2785,13 +2785,13 @@
         <v>2.72</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD21" t="n">
         <v>1.21</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="G22" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H22" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="I22" t="n">
         <v>1.06</v>
@@ -2853,10 +2853,10 @@
         <v>3.25</v>
       </c>
       <c r="M22" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="N22" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="O22" t="n">
         <v>1.44</v>
@@ -2895,13 +2895,13 @@
         <v>2.64</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -2910,13 +2910,13 @@
         <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG22" t="n">
         <v>1.98</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="23">
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="G23" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I23" t="n">
         <v>1.06</v>
@@ -2963,10 +2963,10 @@
         <v>3.2</v>
       </c>
       <c r="M23" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="N23" t="n">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="O23" t="n">
         <v>1.44</v>
@@ -3005,13 +3005,13 @@
         <v>3.02</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -3020,13 +3020,13 @@
         <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="24">
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="G24" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H24" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I24" t="n">
         <v>1.07</v>
@@ -3073,10 +3073,10 @@
         <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="N24" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="O24" t="n">
         <v>1.44</v>
@@ -3115,25 +3115,25 @@
         <v>3.09</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF24" t="n">
         <v>1.88</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH24" t="n">
         <v>0</v>
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="G25" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H25" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
         <v>1.05</v>
@@ -3186,7 +3186,7 @@
         <v>1.8</v>
       </c>
       <c r="N25" t="n">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="O25" t="n">
         <v>1.4</v>
@@ -3225,13 +3225,13 @@
         <v>3.28</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AG25" t="n">
         <v>1.88</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="26">
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G26" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H26" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="I26" t="n">
         <v>1.06</v>
@@ -3293,10 +3293,10 @@
         <v>3.2</v>
       </c>
       <c r="M26" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N26" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O26" t="n">
         <v>1.44</v>
@@ -3335,28 +3335,28 @@
         <v>3.35</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="27">
@@ -3382,31 +3382,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="G27" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H27" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="M27" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="N27" t="n">
-        <v>1.63</v>
+        <v>1.85</v>
       </c>
       <c r="O27" t="n">
         <v>1.44</v>
@@ -3421,13 +3421,13 @@
         <v>1.75</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="V27" t="n">
         <v>2</v>
@@ -3445,25 +3445,25 @@
         <v>2.99</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH27" t="n">
         <v>0</v>
@@ -3492,31 +3492,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="G28" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H28" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="M28" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="N28" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="O28" t="n">
         <v>1.44</v>
@@ -3531,13 +3531,13 @@
         <v>1.8</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="V28" t="n">
         <v>1.55</v>
@@ -3555,28 +3555,28 @@
         <v>2.26</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="29">
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H29" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I29" t="n">
         <v>1.07</v>
@@ -3623,10 +3623,10 @@
         <v>3.2</v>
       </c>
       <c r="M29" t="n">
-        <v>2.09</v>
+        <v>2.15</v>
       </c>
       <c r="N29" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="O29" t="n">
         <v>1.44</v>
@@ -3665,13 +3665,13 @@
         <v>2.74</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="AD29" t="n">
         <v>1.21</v>
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="G30" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H30" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="I30" t="n">
         <v>1.05</v>
@@ -3733,10 +3733,10 @@
         <v>3.3</v>
       </c>
       <c r="M30" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="N30" t="n">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="O30" t="n">
         <v>1.4</v>
@@ -3775,13 +3775,13 @@
         <v>2.52</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="AD30" t="n">
         <v>1.19</v>
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.44</v>
+        <v>2.55</v>
       </c>
       <c r="G31" t="n">
         <v>3.1</v>
       </c>
       <c r="H31" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="I31" t="n">
         <v>1.07</v>
@@ -3843,10 +3843,10 @@
         <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>2.11</v>
+        <v>2.12</v>
       </c>
       <c r="N31" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O31" t="n">
         <v>1.44</v>
@@ -3885,13 +3885,13 @@
         <v>2.26</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>3.07</v>
       </c>
       <c r="AD31" t="n">
         <v>1.21</v>
@@ -3932,13 +3932,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="G32" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="H32" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="I32" t="n">
         <v>1.08</v>
@@ -3953,10 +3953,10 @@
         <v>3.1</v>
       </c>
       <c r="M32" t="n">
-        <v>2.13</v>
+        <v>2.23</v>
       </c>
       <c r="N32" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="O32" t="n">
         <v>1.5</v>
@@ -3995,13 +3995,13 @@
         <v>3.05</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AD32" t="n">
         <v>1.26</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="G33" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H33" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="I33" t="n">
         <v>1.05</v>
@@ -4063,10 +4063,10 @@
         <v>3.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="N33" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O33" t="n">
         <v>1.36</v>
@@ -4105,13 +4105,13 @@
         <v>2.81</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AD33" t="n">
         <v>1.26</v>
@@ -4152,10 +4152,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="G34" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="H34" t="n">
         <v>3.5</v>
@@ -4173,10 +4173,10 @@
         <v>3.1</v>
       </c>
       <c r="M34" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="N34" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="O34" t="n">
         <v>1.44</v>
@@ -4215,13 +4215,13 @@
         <v>2.95</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AD34" t="n">
         <v>1.26</v>
@@ -4262,13 +4262,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="G35" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="H35" t="n">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="I35" t="n">
         <v>1.08</v>
@@ -4283,10 +4283,10 @@
         <v>2.8</v>
       </c>
       <c r="M35" t="n">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="N35" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="O35" t="n">
         <v>1.5</v>
@@ -4325,13 +4325,13 @@
         <v>2.57</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AD35" t="n">
         <v>1.27</v>
@@ -4372,28 +4372,28 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G36" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H36" t="n">
-        <v>2.23</v>
+        <v>2.38</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M36" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="N36" t="n">
         <v>1.63</v>
@@ -4411,13 +4411,13 @@
         <v>1.83</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V36" t="n">
         <v>2</v>
@@ -4435,28 +4435,28 @@
         <v>2.92</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="37">
@@ -4482,31 +4482,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="G37" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H37" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M37" t="n">
         <v>2.01</v>
       </c>
       <c r="N37" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="O37" t="n">
         <v>1.44</v>
@@ -4521,13 +4521,13 @@
         <v>1.83</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="V37" t="n">
         <v>1.6</v>
@@ -4545,28 +4545,28 @@
         <v>2.42</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="38">
@@ -4592,13 +4592,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.41</v>
+        <v>2.63</v>
       </c>
       <c r="G38" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H38" t="n">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="I38" t="n">
         <v>1.07</v>
@@ -4613,10 +4613,10 @@
         <v>3</v>
       </c>
       <c r="M38" t="n">
-        <v>2.09</v>
+        <v>2.12</v>
       </c>
       <c r="N38" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="O38" t="n">
         <v>1.44</v>
@@ -4655,28 +4655,28 @@
         <v>2.88</v>
       </c>
       <c r="AA38" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="39">
@@ -4702,13 +4702,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H39" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I39" t="n">
         <v>1.07</v>
@@ -4723,10 +4723,10 @@
         <v>3</v>
       </c>
       <c r="M39" t="n">
-        <v>2.01</v>
+        <v>2.06</v>
       </c>
       <c r="N39" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="O39" t="n">
         <v>1.44</v>
@@ -4765,28 +4765,28 @@
         <v>2.61</v>
       </c>
       <c r="AA39" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AB39" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG39" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH39" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="40">
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.34</v>
+        <v>2.15</v>
       </c>
       <c r="G40" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H40" t="n">
-        <v>2.84</v>
+        <v>3.5</v>
       </c>
       <c r="I40" t="n">
         <v>1.08</v>
@@ -4833,10 +4833,10 @@
         <v>2.9</v>
       </c>
       <c r="M40" t="n">
-        <v>2.16</v>
+        <v>2.23</v>
       </c>
       <c r="N40" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="O40" t="n">
         <v>1.5</v>
@@ -4875,28 +4875,28 @@
         <v>2.14</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AG40" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="41">
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="G41" t="n">
         <v>3.3</v>
       </c>
       <c r="H41" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="I41" t="n">
         <v>1.07</v>
@@ -4943,10 +4943,10 @@
         <v>3.1</v>
       </c>
       <c r="M41" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="N41" t="n">
-        <v>1.63</v>
+        <v>1.84</v>
       </c>
       <c r="O41" t="n">
         <v>1.44</v>
@@ -4985,28 +4985,28 @@
         <v>2.91</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AG41" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH41" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="42">
@@ -5032,13 +5032,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="G42" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H42" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="I42" t="n">
         <v>1.07</v>
@@ -5053,10 +5053,10 @@
         <v>3</v>
       </c>
       <c r="M42" t="n">
-        <v>2.01</v>
+        <v>2.06</v>
       </c>
       <c r="N42" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="O42" t="n">
         <v>1.44</v>
@@ -5095,28 +5095,28 @@
         <v>2.55</v>
       </c>
       <c r="AA42" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AB42" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AD42" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE42" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF42" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG42" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH42" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="43">
@@ -5142,13 +5142,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="H43" t="n">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="I43" t="n">
         <v>1.1</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="M43" t="n">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="N43" t="n">
-        <v>1.73</v>
+        <v>1.92</v>
       </c>
       <c r="O43" t="n">
         <v>1.44</v>
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="G44" t="n">
-        <v>4.65</v>
+        <v>4.5</v>
       </c>
       <c r="H44" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="I44" t="n">
         <v>1.02</v>
@@ -5362,13 +5362,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="G45" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H45" t="n">
-        <v>4.05</v>
+        <v>4.33</v>
       </c>
       <c r="I45" t="n">
         <v>1.07</v>
@@ -5383,10 +5383,10 @@
         <v>3.1</v>
       </c>
       <c r="M45" t="n">
-        <v>2.01</v>
+        <v>2.06</v>
       </c>
       <c r="N45" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="O45" t="n">
         <v>1.44</v>
@@ -5425,28 +5425,28 @@
         <v>3.2</v>
       </c>
       <c r="AA45" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AB45" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AC45" t="n">
-        <v>0</v>
+        <v>3.68</v>
       </c>
       <c r="AD45" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE45" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AF45" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AG45" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH45" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="46">
@@ -5472,13 +5472,13 @@
         </is>
       </c>
       <c r="F46" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G46" t="n">
         <v>3.4</v>
       </c>
-      <c r="G46" t="n">
-        <v>3.3</v>
-      </c>
       <c r="H46" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
         <v>1.07</v>
@@ -5496,7 +5496,7 @@
         <v>1.98</v>
       </c>
       <c r="N46" t="n">
-        <v>1.68</v>
+        <v>1.88</v>
       </c>
       <c r="O46" t="n">
         <v>1.44</v>
@@ -5535,28 +5535,28 @@
         <v>2.83</v>
       </c>
       <c r="AA46" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="AB46" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AD46" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE46" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF46" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AG46" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH46" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="47">
@@ -5582,13 +5582,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="G47" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="H47" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I47" t="n">
         <v>1.04</v>
@@ -5692,13 +5692,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="G48" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="H48" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="I48" t="n">
         <v>1.01</v>
@@ -5713,10 +5713,10 @@
         <v>5</v>
       </c>
       <c r="M48" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="N48" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="O48" t="n">
         <v>1.22</v>
@@ -5764,19 +5764,19 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD48" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE48" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF48" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AG48" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AH48" t="n">
-        <v>0</v>
+        <v>2.81</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2022-12-29_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-29_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="G2" t="n">
         <v>3.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="I2" t="n">
         <v>1.04</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.45</v>
+        <v>2.28</v>
       </c>
       <c r="G3" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H3" t="n">
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="I3" t="n">
         <v>1.03</v>
@@ -763,10 +763,10 @@
         <v>3.61</v>
       </c>
       <c r="M3" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="N3" t="n">
-        <v>2.01</v>
+        <v>1.94</v>
       </c>
       <c r="O3" t="n">
         <v>1.37</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
         <v>1.06</v>
@@ -873,10 +873,10 @@
         <v>2.75</v>
       </c>
       <c r="M4" t="n">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="N4" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -891,13 +891,13 @@
         <v>1.77</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
         <v>1.25</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
         <v>1.04</v>
@@ -983,10 +983,10 @@
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="N5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H6" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="I6" t="n">
         <v>1.07</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="G7" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I7" t="n">
         <v>1.05</v>
@@ -1203,10 +1203,10 @@
         <v>3.4</v>
       </c>
       <c r="M7" t="n">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="N7" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
         <v>1.08</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="G9" t="n">
         <v>3.2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
         <v>1.07</v>
@@ -1423,10 +1423,10 @@
         <v>2.87</v>
       </c>
       <c r="M9" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="N9" t="n">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="O9" t="n">
         <v>1.44</v>
@@ -1515,10 +1515,10 @@
         <v>2.5</v>
       </c>
       <c r="G10" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H10" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="I10" t="n">
         <v>1.06</v>
@@ -1533,7 +1533,7 @@
         <v>3.25</v>
       </c>
       <c r="M10" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="N10" t="n">
         <v>1.83</v>
@@ -1575,28 +1575,28 @@
         <v>3.36</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="11">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.95</v>
+        <v>1.76</v>
       </c>
       <c r="G11" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="I11" t="n">
         <v>1.03</v>
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="G12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H12" t="n">
         <v>5</v>
@@ -1756,7 +1756,7 @@
         <v>2.2</v>
       </c>
       <c r="N12" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="O12" t="n">
         <v>1.48</v>
@@ -1795,28 +1795,28 @@
         <v>2.66</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>3.86</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="13">
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>3.4</v>
+        <v>3.38</v>
       </c>
       <c r="H13" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="I13" t="n">
         <v>1.05</v>
@@ -1863,10 +1863,10 @@
         <v>3.6</v>
       </c>
       <c r="M13" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="N13" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="O13" t="n">
         <v>1.36</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="G14" t="n">
         <v>3.3</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
         <v>1.07</v>
@@ -2024,7 +2024,7 @@
         <v>2.43</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE14" t="n">
         <v>1.32</v>
@@ -2062,10 +2062,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="G15" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H15" t="n">
         <v>2.55</v>
@@ -2172,10 +2172,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="G16" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H16" t="n">
         <v>2.45</v>
@@ -2285,10 +2285,10 @@
         <v>2.3</v>
       </c>
       <c r="G17" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H17" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I17" t="n">
         <v>1.08</v>
@@ -2392,10 +2392,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="G18" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="H18" t="n">
         <v>2.55</v>
@@ -2413,10 +2413,10 @@
         <v>3.8</v>
       </c>
       <c r="M18" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="N18" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="O18" t="n">
         <v>1.36</v>
@@ -2455,28 +2455,28 @@
         <v>3.28</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="19">
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="G19" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I19" t="n">
         <v>1.06</v>
@@ -2523,10 +2523,10 @@
         <v>3.2</v>
       </c>
       <c r="M19" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>1.86</v>
+        <v>1.74</v>
       </c>
       <c r="O19" t="n">
         <v>1.44</v>
@@ -2574,7 +2574,7 @@
         <v>3.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE19" t="n">
         <v>1.48</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="G20" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H20" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="I20" t="n">
         <v>1.05</v>
@@ -2633,10 +2633,10 @@
         <v>3.4</v>
       </c>
       <c r="M20" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="N20" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="O20" t="n">
         <v>1.4</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF20" t="n">
         <v>1.48</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="G21" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H21" t="n">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="I21" t="n">
         <v>1.06</v>
@@ -2743,10 +2743,10 @@
         <v>3.2</v>
       </c>
       <c r="M21" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
       <c r="O21" t="n">
         <v>1.44</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H22" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="I22" t="n">
         <v>1.06</v>
@@ -2853,10 +2853,10 @@
         <v>3.25</v>
       </c>
       <c r="M22" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="O22" t="n">
         <v>1.44</v>
@@ -2904,10 +2904,10 @@
         <v>1.64</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF22" t="n">
         <v>1.57</v>
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
         <v>3.4</v>
@@ -2963,10 +2963,10 @@
         <v>3.2</v>
       </c>
       <c r="M23" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>1.88</v>
+        <v>1.74</v>
       </c>
       <c r="O23" t="n">
         <v>1.44</v>
@@ -3014,10 +3014,10 @@
         <v>2.66</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AF23" t="n">
         <v>1.65</v>
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="G24" t="n">
         <v>3.5</v>
       </c>
       <c r="H24" t="n">
-        <v>4.33</v>
+        <v>4.25</v>
       </c>
       <c r="I24" t="n">
         <v>1.07</v>
@@ -3073,10 +3073,10 @@
         <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
       <c r="O24" t="n">
         <v>1.44</v>
@@ -3124,7 +3124,7 @@
         <v>3.32</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE24" t="n">
         <v>1.55</v>
@@ -3136,7 +3136,7 @@
         <v>2.3</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="25">
@@ -3162,10 +3162,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="G25" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H25" t="n">
         <v>3.3</v>
@@ -3183,10 +3183,10 @@
         <v>3.6</v>
       </c>
       <c r="M25" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="N25" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="O25" t="n">
         <v>1.4</v>
@@ -3234,10 +3234,10 @@
         <v>2.41</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF25" t="n">
         <v>1.55</v>
@@ -3278,7 +3278,7 @@
         <v>3.3</v>
       </c>
       <c r="H26" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="I26" t="n">
         <v>1.06</v>
@@ -3296,7 +3296,7 @@
         <v>2</v>
       </c>
       <c r="N26" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="O26" t="n">
         <v>1.44</v>
@@ -3344,7 +3344,7 @@
         <v>1.64</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE26" t="n">
         <v>1.43</v>
@@ -3388,7 +3388,7 @@
         <v>3.5</v>
       </c>
       <c r="H27" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="I27" t="n">
         <v>1.05</v>
@@ -3403,10 +3403,10 @@
         <v>3.2</v>
       </c>
       <c r="M27" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="N27" t="n">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="O27" t="n">
         <v>1.44</v>
@@ -3454,7 +3454,7 @@
         <v>3.48</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE27" t="n">
         <v>1.55</v>
@@ -3466,7 +3466,7 @@
         <v>2.3</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="28">
@@ -3492,10 +3492,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="G28" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H28" t="n">
         <v>3.5</v>
@@ -3564,7 +3564,7 @@
         <v>2.78</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE28" t="n">
         <v>1.48</v>
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="G29" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H29" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I29" t="n">
         <v>1.07</v>
@@ -3715,7 +3715,7 @@
         <v>1.67</v>
       </c>
       <c r="G30" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H30" t="n">
         <v>5</v>
@@ -3733,10 +3733,10 @@
         <v>3.3</v>
       </c>
       <c r="M30" t="n">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="N30" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="O30" t="n">
         <v>1.4</v>
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="G31" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H31" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I31" t="n">
         <v>1.07</v>
@@ -3935,10 +3935,10 @@
         <v>2.2</v>
       </c>
       <c r="G32" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H32" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I32" t="n">
         <v>1.08</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="G33" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H33" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="I33" t="n">
         <v>1.05</v>
@@ -4063,10 +4063,10 @@
         <v>3.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="N33" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="O33" t="n">
         <v>1.36</v>
@@ -4155,10 +4155,10 @@
         <v>2.1</v>
       </c>
       <c r="G34" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H34" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I34" t="n">
         <v>1.07</v>
@@ -4262,13 +4262,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="G35" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H35" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I35" t="n">
         <v>1.08</v>
@@ -4372,13 +4372,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H36" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="I36" t="n">
         <v>1.04</v>
@@ -4488,7 +4488,7 @@
         <v>3.25</v>
       </c>
       <c r="H37" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I37" t="n">
         <v>1.06</v>
@@ -4503,10 +4503,10 @@
         <v>3</v>
       </c>
       <c r="M37" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="N37" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="O37" t="n">
         <v>1.44</v>
@@ -4592,13 +4592,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="G38" t="n">
         <v>3.2</v>
       </c>
       <c r="H38" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="I38" t="n">
         <v>1.07</v>
@@ -4702,13 +4702,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="G39" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H39" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I39" t="n">
         <v>1.07</v>
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="G40" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H40" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
         <v>1.08</v>
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H41" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I41" t="n">
         <v>1.07</v>
@@ -4943,10 +4943,10 @@
         <v>3.1</v>
       </c>
       <c r="M41" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="N41" t="n">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="O41" t="n">
         <v>1.44</v>
@@ -5032,13 +5032,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="G42" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H42" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="I42" t="n">
         <v>1.07</v>
@@ -5142,13 +5142,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="G43" t="n">
         <v>3</v>
       </c>
       <c r="H43" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="I43" t="n">
         <v>1.1</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="M43" t="n">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="N43" t="n">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="O43" t="n">
         <v>1.44</v>
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="G44" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H44" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I44" t="n">
         <v>1.02</v>
@@ -5273,7 +5273,7 @@
         <v>4.5</v>
       </c>
       <c r="M44" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="N44" t="n">
         <v>2.25</v>
@@ -5362,13 +5362,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="G45" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H45" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I45" t="n">
         <v>1.07</v>
@@ -5472,13 +5472,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="G46" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="I46" t="n">
         <v>1.07</v>
@@ -5493,10 +5493,10 @@
         <v>3.1</v>
       </c>
       <c r="M46" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="N46" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="O46" t="n">
         <v>1.44</v>
@@ -5582,13 +5582,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="G47" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="H47" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I47" t="n">
         <v>1.04</v>
@@ -5692,13 +5692,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="G48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H48" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I48" t="n">
         <v>1.01</v>
